--- a/Go School - Microservices 2 - Activity3.xlsx
+++ b/Go School - Microservices 2 - Activity3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nino\Desktop\Nino\GoLang\06-01 UService 2 Activities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Go\src\05-uService\GoMS2\03-WebCalc\WebCalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Scenario:</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Equivalence</t>
   </si>
   <si>
-    <t>Simple Web Calculator</t>
-  </si>
-  <si>
     <t>Functionality test</t>
   </si>
   <si>
@@ -67,52 +64,57 @@
     <t>1.4 func Divide test</t>
   </si>
   <si>
-    <t>Put the 2 values to the link to perform an addition</t>
-  </si>
-  <si>
-    <t>Put the 2 values to the link to perform a subtraction</t>
-  </si>
-  <si>
-    <t>Put the 2 values to the link to perform a multiplication</t>
-  </si>
-  <si>
-    <t>Put the 2 values to the link to perform a division</t>
-  </si>
-  <si>
-    <t>“localhost:8080/calc?action=add&amp;value1=3&amp;value2=2”</t>
-  </si>
-  <si>
-    <t>“localhost:8080/calc?action=subtract&amp;value1=8&amp;value2=2”</t>
-  </si>
-  <si>
-    <t>“localhost:8080/calc?action=multiply&amp;value1=7&amp;value2=1”</t>
-  </si>
-  <si>
-    <t>“localhost:8080/calc?action=divide&amp;value1=16&amp;value2=2”</t>
-  </si>
-  <si>
-    <t>From browser should display 5</t>
-  </si>
-  <si>
-    <t>From browser should display 6</t>
-  </si>
-  <si>
-    <t>From browser should display 7</t>
-  </si>
-  <si>
-    <t>From browser should display 8</t>
-  </si>
-  <si>
     <t>Divide by 0 Test</t>
   </si>
   <si>
-    <t>Put the 2nd value as 0 to the link to perform a division</t>
+    <t>Simple Calculator</t>
   </si>
   <si>
-    <t>“localhost:8080/calc?action=divide&amp;value1=16&amp;value2=0”</t>
+    <t>create func (suite *AddTestSuite) TestAdd()</t>
   </si>
   <si>
-    <t>From browser should display +Inf</t>
+    <t>create func (suite *SubtractTestSuite) TestSubtract()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create func (suite *DivideTestSuite) TestDivide() </t>
+  </si>
+  <si>
+    <t>create func (suite *MultiplyTestSuite) TestMultiply()</t>
+  </si>
+  <si>
+    <t>Put the 2nd value as 0 to the to perform a division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {5, 7, 12},
+  {8, 99, 107},
+  {33, 66, 99},
+  {109, -200, -91},
+  {-5, -4, -9},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {12, 4, 8},
+  {50, 50, 0},
+  {30, 45, -15},
+  {-20, -22, 2},
+  {-23, 50, -73},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {2, 3, 6},
+  {4, 7, 28},
+  {-5, 3, -15},
+  {8, 0, 0},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {5, -2, -2.5},
+  {6, 8, 0.75},
+  {-30, -10, 3.0},
+  {100, 25, 4.0},</t>
+  </si>
+  <si>
+    <t>{100, 0, math.Inf(1)},</t>
+  </si>
+  <si>
+    <t>should pass</t>
   </si>
 </sst>
 </file>
@@ -400,7 +402,9 @@
   </sheetPr>
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -416,7 +420,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -521,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -553,16 +557,16 @@
     <row r="5" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>7</v>
@@ -593,16 +597,16 @@
     <row r="6" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>7</v>
@@ -633,16 +637,16 @@
     <row r="7" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>7</v>
@@ -673,13 +677,13 @@
     <row r="8" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>26</v>
@@ -715,16 +719,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>8</v>
